--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/WISCONSIN_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/WISCONSIN_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1162"/>
+  <dimension ref="A1:D1156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C7">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C11">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C26">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C34">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C49">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C55">
@@ -1374,7 +1374,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C76">
@@ -1387,7 +1387,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C77">
@@ -1530,7 +1530,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C88">
@@ -1717,7 +1717,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C102">
@@ -1852,7 +1852,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1909,7 +1909,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C116">
@@ -2096,7 +2096,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C130">
@@ -2213,7 +2213,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C139">
@@ -2252,7 +2252,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C142">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C148">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C149">
@@ -2447,12 +2447,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C157">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C161">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C162">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C167">
@@ -2641,13 +2641,13 @@
         <v>8</v>
       </c>
       <c r="D171">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C172">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C174">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C179">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C187">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C195">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C201">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C210">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C219">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C224">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C225">
@@ -3349,20 +3349,20 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C226">
         <v>8</v>
       </c>
       <c r="D226">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C227">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C236">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C237">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C244">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C248">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C255">
@@ -3764,7 +3764,7 @@
         <v>8</v>
       </c>
       <c r="D257">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="258">
@@ -3790,13 +3790,13 @@
         <v>8</v>
       </c>
       <c r="D259">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C260">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C262">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C264">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C266">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C270">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C275">
@@ -4014,7 +4014,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C276">
@@ -4027,7 +4027,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C277">
@@ -4066,7 +4066,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C280">
@@ -4079,7 +4079,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C281">
@@ -4092,7 +4092,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C282">
@@ -4118,7 +4118,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C284">
@@ -4131,7 +4131,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C285">
@@ -4144,7 +4144,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C286">
@@ -4157,7 +4157,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C287">
@@ -4196,7 +4196,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C290">
@@ -4209,7 +4209,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C291">
@@ -4235,7 +4235,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C293">
@@ -4248,7 +4248,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C294">
@@ -4313,7 +4313,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C299">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C300">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C301">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C302">
@@ -4378,7 +4378,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C304">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C315">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C317">
@@ -4573,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C319">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C320">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C324">
@@ -4671,7 +4671,7 @@
         <v>8</v>
       </c>
       <c r="D326">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="327">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C335">
@@ -4825,7 +4825,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C338">
@@ -4890,7 +4890,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C343">
@@ -4955,7 +4955,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C348">
@@ -4981,7 +4981,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C350">
@@ -4994,7 +4994,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C351">
@@ -5020,7 +5020,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C353">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C357">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C358">
@@ -5098,7 +5098,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C359">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C363">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C364">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C367">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C368">
@@ -5259,7 +5259,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C371">
@@ -5298,7 +5298,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C374">
@@ -5311,7 +5311,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C375">
@@ -5324,7 +5324,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C376">
@@ -5344,7 +5344,7 @@
         <v>8</v>
       </c>
       <c r="D377">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="378">
@@ -5493,7 +5493,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C389">
@@ -5545,7 +5545,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C393">
@@ -5558,7 +5558,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C394">
@@ -5610,7 +5610,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C398">
@@ -5662,7 +5662,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C402">
@@ -5675,7 +5675,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C403">
@@ -5747,13 +5747,13 @@
         <v>8</v>
       </c>
       <c r="D408">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C409">
@@ -5805,7 +5805,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C413">
@@ -5831,7 +5831,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C415">
@@ -5844,7 +5844,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C416">
@@ -5857,7 +5857,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C417">
@@ -5870,7 +5870,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C418">
@@ -5909,7 +5909,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C421">
@@ -5922,7 +5922,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C422">
@@ -5961,7 +5961,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C425">
@@ -5974,7 +5974,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C426">
@@ -6013,7 +6013,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C429">
@@ -6072,7 +6072,7 @@
         <v>8</v>
       </c>
       <c r="D433">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="434">
@@ -6104,7 +6104,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C436">
@@ -6117,7 +6117,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C437">
@@ -6130,7 +6130,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C438">
@@ -6182,7 +6182,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C442">
@@ -6195,7 +6195,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C443">
@@ -6234,14 +6234,14 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C446">
         <v>8</v>
       </c>
       <c r="D446">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="447">
@@ -6267,7 +6267,7 @@
         <v>797</v>
       </c>
       <c r="D448">
-        <v>0.09346780813885305</v>
+        <v>0.09346780813885304</v>
       </c>
     </row>
     <row r="449">
@@ -6688,7 +6688,7 @@
         <v>8</v>
       </c>
       <c r="D480">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="481">
@@ -6948,7 +6948,7 @@
         <v>8</v>
       </c>
       <c r="D500">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="501">
@@ -7078,7 +7078,7 @@
         <v>8</v>
       </c>
       <c r="D510">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="511">
@@ -7349,7 +7349,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C531">
@@ -7453,7 +7453,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C539">
@@ -7492,7 +7492,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C542">
@@ -7544,7 +7544,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C546">
@@ -7557,7 +7557,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C547">
@@ -7705,7 +7705,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C558">
@@ -7757,7 +7757,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C562">
@@ -7777,7 +7777,7 @@
         <v>8</v>
       </c>
       <c r="D563">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="564">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C577">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C580">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C583">
@@ -8092,7 +8092,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C587">
@@ -8118,7 +8118,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerero</t>
+          <t>Cuilápam De Guerero</t>
         </is>
       </c>
       <c r="C589">
@@ -8131,7 +8131,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C590">
@@ -8157,7 +8157,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C592">
@@ -8170,7 +8170,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C593">
@@ -8183,7 +8183,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C594">
@@ -8196,7 +8196,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C595">
@@ -8209,7 +8209,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C596">
@@ -8274,7 +8274,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C601">
@@ -8287,7 +8287,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C602">
@@ -8300,7 +8300,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C603">
@@ -8313,7 +8313,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C604">
@@ -8326,7 +8326,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C605">
@@ -8378,7 +8378,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C609">
@@ -8586,7 +8586,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C625">
@@ -8963,7 +8963,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C654">
@@ -9002,7 +9002,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C657">
@@ -9106,7 +9106,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C665">
@@ -9236,7 +9236,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C675">
@@ -9249,7 +9249,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C676">
@@ -9262,7 +9262,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C677">
@@ -9659,7 +9659,7 @@
         <v>8</v>
       </c>
       <c r="D707">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="708">
@@ -9899,7 +9899,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C726">
@@ -9990,7 +9990,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C733">
@@ -10003,7 +10003,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C734">
@@ -10016,7 +10016,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C735">
@@ -10029,7 +10029,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C736">
@@ -10042,7 +10042,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C737">
@@ -10055,7 +10055,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C738">
@@ -10068,7 +10068,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C739">
@@ -10081,7 +10081,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C740">
@@ -10133,7 +10133,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C744">
@@ -10146,7 +10146,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C745">
@@ -10159,7 +10159,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C746">
@@ -10172,7 +10172,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C747">
@@ -10185,7 +10185,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C748">
@@ -10224,7 +10224,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C751">
@@ -10250,14 +10250,14 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C753">
         <v>8</v>
       </c>
       <c r="D753">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="754">
@@ -10276,7 +10276,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C755">
@@ -10450,7 +10450,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C768">
@@ -10541,7 +10541,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C775">
@@ -10665,7 +10665,7 @@
         <v>8</v>
       </c>
       <c r="D784">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="785">
@@ -10684,7 +10684,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C786">
@@ -10697,7 +10697,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C787">
@@ -10723,7 +10723,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C789">
@@ -10762,7 +10762,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C792">
@@ -10983,7 +10983,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C809">
@@ -11074,7 +11074,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C816">
@@ -11139,7 +11139,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C821">
@@ -11178,7 +11178,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C824">
@@ -11191,7 +11191,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C825">
@@ -11230,7 +11230,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C828">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C849">
@@ -11534,7 +11534,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C851">
@@ -11573,7 +11573,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C854">
@@ -11599,7 +11599,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C856">
@@ -11752,7 +11752,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C867">
@@ -11785,7 +11785,7 @@
         <v>8</v>
       </c>
       <c r="D869">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="870">
@@ -11882,7 +11882,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C877">
@@ -11921,7 +11921,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C880">
@@ -11999,7 +11999,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C886">
@@ -12012,7 +12012,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C887">
@@ -12025,7 +12025,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C888">
@@ -12038,7 +12038,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C889">
@@ -12412,7 +12412,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C917">
@@ -12612,7 +12612,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C932">
@@ -12845,7 +12845,7 @@
         <v>8</v>
       </c>
       <c r="D949">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="950">
@@ -12916,7 +12916,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C955">
@@ -13090,7 +13090,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C968">
@@ -13103,7 +13103,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C969">
@@ -13342,7 +13342,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C987">
@@ -13381,7 +13381,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C990">
@@ -13459,7 +13459,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C996">
@@ -13524,7 +13524,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1001">
@@ -13706,7 +13706,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1015">
@@ -13810,7 +13810,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1023">
@@ -13823,7 +13823,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1024">
@@ -13836,7 +13836,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1025">
@@ -13862,7 +13862,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1027">
@@ -13875,7 +13875,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1028">
@@ -13979,7 +13979,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1036">
@@ -14025,13 +14025,13 @@
         <v>8</v>
       </c>
       <c r="D1039">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1040">
@@ -14057,7 +14057,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1042">
@@ -14070,7 +14070,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1043">
@@ -14109,7 +14109,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1046">
@@ -14135,7 +14135,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1048">
@@ -14291,7 +14291,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1060">
@@ -14304,7 +14304,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1061">
@@ -14330,7 +14330,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1063">
@@ -14447,7 +14447,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1072">
@@ -14460,7 +14460,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1073">
@@ -14623,7 +14623,7 @@
         <v>8</v>
       </c>
       <c r="D1085">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="1086">
@@ -14824,14 +14824,14 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1101">
         <v>8</v>
       </c>
       <c r="D1101">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="1102">
@@ -15042,7 +15042,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1117">
@@ -15146,7 +15146,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1125">
@@ -15250,20 +15250,20 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1133">
         <v>8</v>
       </c>
       <c r="D1133">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1134">
@@ -15393,20 +15393,20 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1144">
         <v>8</v>
       </c>
       <c r="D1144">
-        <v>0.0009381963175794535</v>
+        <v>0.0009381963175794536</v>
       </c>
     </row>
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1145">
@@ -15419,7 +15419,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1146">
@@ -15458,7 +15458,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1149">
@@ -15557,41 +15557,6 @@
       </c>
       <c r="D1156">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="B1158" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="B1159" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="B1160" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="B1161" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1162">
-      <c r="B1162" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
